--- a/空气比热容比.xlsx
+++ b/空气比热容比.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A10E037-14F8-4848-A05C-7BC52216BC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601B371A-385A-4555-8219-8AE9861534AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>p1'/mV</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -121,18 +121,6 @@
   </si>
   <si>
     <t>空气比热容比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Authored by Axolyz.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Licensed by GPL v3.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Welcome for stars, issues &amp; contribution.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -541,7 +529,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -556,10 +544,13 @@
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -572,398 +563,378 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>1460.4</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C9" s="4">
         <v>1.4019999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3">
-        <v>120</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1458.4</v>
-      </c>
-      <c r="D11" s="3">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1458</v>
-      </c>
-      <c r="F11" s="8">
-        <f>B11-D11</f>
-        <v>83.3</v>
-      </c>
-      <c r="G11" s="8">
-        <f>B11/(F11)</f>
-        <v>1.440576230492197</v>
-      </c>
-      <c r="H11" s="8">
-        <f>AVERAGE(G11:G20)</f>
-        <v>1.3407084683419221</v>
-      </c>
-      <c r="I11" s="8">
-        <f>ABS((C8-H11)/C8)</f>
-        <v>4.371721230961325E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="3">
-        <v>118.6</v>
+        <v>120</v>
       </c>
       <c r="C12" s="3">
-        <v>1458.6</v>
+        <v>1458.4</v>
       </c>
       <c r="D12" s="3">
-        <v>29.6</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="E12" s="3">
-        <v>1458.5</v>
+        <v>1458</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" ref="F12:F20" si="0">B12-D12</f>
-        <v>89</v>
+        <f>B12-D12</f>
+        <v>83.3</v>
       </c>
       <c r="G12" s="8">
-        <f t="shared" ref="G12:G20" si="1">B12/(F12)</f>
-        <v>1.3325842696629213</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+        <f>B12/(F12)</f>
+        <v>1.440576230492197</v>
+      </c>
+      <c r="H12" s="8">
+        <f>AVERAGE(G12:G21)</f>
+        <v>1.3407084683419221</v>
+      </c>
+      <c r="I12" s="8">
+        <f>ABS((C9-H12)/C9)</f>
+        <v>4.371721230961325E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="3">
-        <v>118.5</v>
+        <v>118.6</v>
       </c>
       <c r="C13" s="3">
-        <v>1460</v>
+        <v>1458.6</v>
       </c>
       <c r="D13" s="3">
         <v>29.6</v>
       </c>
       <c r="E13" s="3">
+        <v>1458.5</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" ref="F13:F21" si="0">B13-D13</f>
+        <v>89</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" ref="G13:G21" si="1">B13/(F13)</f>
+        <v>1.3325842696629213</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3">
+        <v>118.5</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1460</v>
+      </c>
+      <c r="D14" s="3">
+        <v>29.6</v>
+      </c>
+      <c r="E14" s="3">
         <v>1459.6</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F14" s="8">
         <f t="shared" si="0"/>
         <v>88.9</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G14" s="8">
         <f t="shared" si="1"/>
         <v>1.3329583802024747</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>4</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B15" s="3">
         <v>119.4</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C15" s="3">
         <v>1460.7</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D15" s="3">
         <v>28.2</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E15" s="3">
         <v>1460.2</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F15" s="8">
         <f t="shared" si="0"/>
         <v>91.2</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G15" s="8">
         <f t="shared" si="1"/>
         <v>1.3092105263157896</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>5</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B16" s="3">
         <v>116.7</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C16" s="3">
         <v>1458.8</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D16" s="3">
         <v>27.2</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E16" s="3">
         <v>1460</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F16" s="8">
         <f t="shared" si="0"/>
         <v>89.5</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G16" s="8">
         <f t="shared" si="1"/>
         <v>1.3039106145251398</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>6</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B17" s="3">
         <v>120</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C17" s="3">
         <v>1458.9</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D17" s="3">
         <v>29.2</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E17" s="3">
         <v>1459.7</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F17" s="8">
         <f t="shared" si="0"/>
         <v>90.8</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G17" s="8">
         <f t="shared" si="1"/>
         <v>1.3215859030837005</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>7</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B18" s="3">
         <v>118.4</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C18" s="3">
         <v>1459</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D18" s="3">
         <v>31.4</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E18" s="3">
         <v>1458.8</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F18" s="8">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G18" s="8">
         <f t="shared" si="1"/>
         <v>1.360919540229885</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>8</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B19" s="3">
         <v>118.3</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C19" s="3">
         <v>1459.4</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D19" s="3">
         <v>30.2</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E19" s="3">
         <v>1459</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F19" s="8">
         <f t="shared" si="0"/>
         <v>88.1</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G19" s="8">
         <f t="shared" si="1"/>
         <v>1.3427922814982975</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>9</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B20" s="3">
         <v>120</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C20" s="3">
         <v>1459.3</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D20" s="3">
         <v>29.5</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E20" s="3">
         <v>1459.3</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F20" s="8">
         <f t="shared" si="0"/>
         <v>90.5</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G20" s="8">
         <f t="shared" si="1"/>
         <v>1.3259668508287292</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>10</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B21" s="3">
         <v>123.5</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C21" s="3">
         <v>1460.1</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D21" s="3">
         <v>31.1</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E21" s="3">
         <v>1460.5</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F21" s="8">
         <f t="shared" si="0"/>
         <v>92.4</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G21" s="8">
         <f t="shared" si="1"/>
         <v>1.3365800865800865</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+    <row r="24" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
         <v>0.68300000000000005</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B24" s="6">
         <v>10</v>
       </c>
-      <c r="C23" s="9">
-        <f>ROUND(TINV(1-A23,B23-1),2)</f>
-        <v>1.06</v>
-      </c>
-      <c r="D23" s="9">
-        <f>AVERAGE(G11:G20)</f>
+      <c r="C24" s="9">
+        <f>IF(B24&lt;6,ROUND(TINV(1-A24,B24-1),2),1)</f>
+        <v>1</v>
+      </c>
+      <c r="D24" s="9">
+        <f>AVERAGE(G12:G21)</f>
         <v>1.3407084683419221</v>
       </c>
-      <c r="E23" s="9">
-        <f>_xlfn.STDEV.S(G11:G20)</f>
+      <c r="E24" s="9">
+        <f>_xlfn.STDEV.S(G12:G21)</f>
         <v>3.8670545514806656E-2</v>
       </c>
-      <c r="F23" s="9">
-        <f>C23/SQRT(B18)*E23</f>
-        <v>3.768719298318202E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>24</v>
+      <c r="F24" s="9">
+        <f>C24/SQRT(B19)*E24</f>
+        <v>3.5553955644511332E-3</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">

--- a/空气比热容比.xlsx
+++ b/空气比热容比.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601B371A-385A-4555-8219-8AE9861534AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE82D422-FDBF-41FE-BE82-5ABB2F6C1A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,27 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>p1'/mV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>p1'-p2'/mV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T1/mV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T2/mV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2'/mV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>i</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -104,22 +84,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>γ=p1'/p1'-p2'(两位小数)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>γ平均(两位小数)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>相对误差μ(三位小数)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>γ平均(两位有效)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>空气比热容比</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -129,6 +93,50 @@
   </si>
   <si>
     <t>红色格子：填入你的实验数据，如本身自带数据请更改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p1'/mV 1dp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1/mV 1dp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2'/mV 1dp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2/mV 1dp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p1'-p2'/mV 1dp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>γ=p1'/p1'-p2' 3sd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>γ平均 3sd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相对误差μ 3sd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留位数后(与μD对齐位数)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留位数后(最高次有效数字为1,2保留两位,反之保留一位)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>γ平均</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -136,6 +144,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -166,7 +177,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +199,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -216,11 +233,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -243,11 +261,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Style 1" xfId="2" xr:uid="{B7F5F38E-2862-49B7-958A-2AAAA3C2627B}"/>
     <cellStyle name="Style 2" xfId="1" xr:uid="{F5A71BF3-4D3A-4575-8D02-49F334C91528}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -528,51 +561,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
-    <col min="2" max="5" width="8.88671875" style="1"/>
+    <col min="2" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="16.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.21875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -580,7 +618,7 @@
         <v>1460.4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C9" s="4">
         <v>1.4019999999999999</v>
@@ -589,62 +627,62 @@
     <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="9">
         <v>120</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="9">
         <v>1458.4</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="9">
         <v>36.700000000000003</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="9">
         <v>1458</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="10">
         <f>B12-D12</f>
         <v>83.3</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="12">
         <f>B12/(F12)</f>
         <v>1.440576230492197</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="12">
         <f>AVERAGE(G12:G21)</f>
         <v>1.3407084683419221</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="12">
         <f>ABS((C9-H12)/C9)</f>
         <v>4.371721230961325E-2</v>
       </c>
@@ -653,264 +691,264 @@
       <c r="A13" s="2">
         <v>2</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="9">
         <v>118.6</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="9">
         <v>1458.6</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="9">
         <v>29.6</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="9">
         <v>1458.5</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="10">
         <f t="shared" ref="F13:F21" si="0">B13-D13</f>
         <v>89</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="12">
         <f t="shared" ref="G13:G21" si="1">B13/(F13)</f>
         <v>1.3325842696629213</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="13"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>3</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="9">
         <v>118.5</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="9">
         <v>1460</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="9">
         <v>29.6</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="9">
         <v>1459.6</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="10">
         <f t="shared" si="0"/>
         <v>88.9</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="12">
         <f t="shared" si="1"/>
         <v>1.3329583802024747</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>4</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="9">
         <v>119.4</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="9">
         <v>1460.7</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="9">
         <v>28.2</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="9">
         <v>1460.2</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="10">
         <f t="shared" si="0"/>
         <v>91.2</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="12">
         <f t="shared" si="1"/>
         <v>1.3092105263157896</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="13"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>5</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="9">
         <v>116.7</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="9">
         <v>1458.8</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="9">
         <v>27.2</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="9">
         <v>1460</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="10">
         <f t="shared" si="0"/>
         <v>89.5</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="12">
         <f t="shared" si="1"/>
         <v>1.3039106145251398</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>6</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="9">
         <v>120</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="9">
         <v>1458.9</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="9">
         <v>29.2</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="9">
         <v>1459.7</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="10">
         <f t="shared" si="0"/>
         <v>90.8</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="12">
         <f t="shared" si="1"/>
         <v>1.3215859030837005</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>7</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="9">
         <v>118.4</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="9">
         <v>1459</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="9">
         <v>31.4</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="9">
         <v>1458.8</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="10">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="12">
         <f t="shared" si="1"/>
         <v>1.360919540229885</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>8</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="9">
         <v>118.3</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="9">
         <v>1459.4</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="9">
         <v>30.2</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="9">
         <v>1459</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="10">
         <f t="shared" si="0"/>
         <v>88.1</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="12">
         <f t="shared" si="1"/>
         <v>1.3427922814982975</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="13"/>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>9</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="9">
         <v>120</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="9">
         <v>1459.3</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="9">
         <v>29.5</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="9">
         <v>1459.3</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="10">
         <f t="shared" si="0"/>
         <v>90.5</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="12">
         <f t="shared" si="1"/>
         <v>1.3259668508287292</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="13"/>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>10</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="9">
         <v>123.5</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="9">
         <v>1460.1</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="9">
         <v>31.1</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="9">
         <v>1460.5</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="10">
         <f t="shared" si="0"/>
         <v>92.4</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="12">
         <f t="shared" si="1"/>
         <v>1.3365800865800865</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="13"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -920,21 +958,39 @@
       <c r="B24" s="6">
         <v>10</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <f>IF(B24&lt;6,ROUND(TINV(1-A24,B24-1),2),1)</f>
         <v>1</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <f>AVERAGE(G12:G21)</f>
         <v>1.3407084683419221</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <f>_xlfn.STDEV.S(G12:G21)</f>
         <v>3.8670545514806656E-2</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <f>C24/SQRT(B19)*E24</f>
         <v>3.5553955644511332E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="15" t="str">
+        <f>IF(F24*10^INT(-LOG(ABS(F24)))&lt;0.3,FIXED(D24,1-INT(LOG(F24)),1),FIXED(D24,-INT(LOG(F24)),1))</f>
+        <v>1.341</v>
+      </c>
+      <c r="F26" s="15" t="str">
+        <f>IF(F24*10^INT(-LOG(ABS(F24)))&lt;0.3,FIXED(F24,1-INT(LOG(F24)),1),FIXED(F24,-INT(LOG(F24)),1))</f>
+        <v>0.004</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
